--- a/.mchp_private/reports/dpsk3-power-buck-agc.xlsx
+++ b/.mchp_private/reports/dpsk3-power-buck-agc.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Firmware\MCU16ASMPS_CodeExamples\dpsk3-power-buck-adaptive-gain-control\.mchp_private\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3495D8-E095-4B80-84F6-B606B75DE5AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968BA0A1-9C8B-40C0-94C3-B4C0A4A8D8BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="540" windowWidth="21600" windowHeight="11505" xr2:uid="{3D56D478-F40D-45D1-8FA6-0836E8ED2300}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3D56D478-F40D-45D1-8FA6-0836E8ED2300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
@@ -178,16 +179,121 @@
   </si>
   <si>
     <t>AGC Scaler</t>
+  </si>
+  <si>
+    <t>ADC VIN</t>
+  </si>
+  <si>
+    <t>ADC VOUT</t>
+  </si>
+  <si>
+    <t>ADC VL</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <t>Fractional</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>HEX Factor</t>
+  </si>
+  <si>
+    <t>BSft Scaler</t>
+  </si>
+  <si>
+    <t>HEX Scaler</t>
+  </si>
+  <si>
+    <t>AGC Configuration Parameters</t>
+  </si>
+  <si>
+    <t>Input-2-Output Normalization Factor</t>
+  </si>
+  <si>
+    <t>Input-2-Output Normalization Scaler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +315,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +382,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC1C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -315,17 +474,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,21 +613,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,6 +668,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE7E7"/>
+      <color rgb="FFFFC1C1"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -370,6 +682,1732 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>k</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>AGC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> vs. V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>IN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kAGC (3.3V)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$G$2:$G$19,Sheet2!$G$21:$G$39,Sheet2!$G$41:$G$59)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>2.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7803526448362721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5412123855211513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2123499142367067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0954742715437074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91911573472041608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85033686236766126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79113498992612497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74025974025974028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69484860401101056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6548082267926626</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61913104414856346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58714072105000825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55855855855855852</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53238927387767399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50856238307670165</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0549253731343284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96531002458344717</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89040060468631899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82570093457943927</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76976693530821172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72093023255813948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67831094049904028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64010143090019922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6059670781893004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57528894676867981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54790697674418609</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5226264418811003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49964654319242191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.478602383531961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.45925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44158440584780706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.42506615347606447</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.40973913043478261</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2785299806576402</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9010220548682086</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4244256348246676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.265759312320917</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0360598065083553</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94948952176249324</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.87627076617902311</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.75967325881341363</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71206931291557529</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.67007963594994313</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.63276633840644581</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5996945528593246</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56963249516441006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54244052187260172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C22B-454B-B2BA-56ADF6DB3771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>kAGC (0.6V)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$22:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$G$22:$G$39,Sheet2!$G$41:$G$59)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.0549253731343284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96531002458344717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89040060468631899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82570093457943927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76976693530821172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72093023255813948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67831094049904028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64010143090019922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6059670781893004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57528894676867981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54790697674418609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5226264418811003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49964654319242191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.478602383531961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44158440584780706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42506615347606447</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40973913043478261</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2785299806576402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9010220548682086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4244256348246676</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.265759312320917</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0360598065083553</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94948952176249324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87627076617902311</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75967325881341363</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71206931291557529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67007963594994313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63276633840644581</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5996945528593246</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56963249516441006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54244052187260172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C22B-454B-B2BA-56ADF6DB3771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>kAGC (4.0V)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$42:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$42:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2785299806576402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9010220548682086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4244256348246676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.265759312320917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0360598065083553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94948952176249324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87627076617902311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75967325881341363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71206931291557529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67007963594994313</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63276633840644581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5996945528593246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56963249516441006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54244052187260172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C22B-454B-B2BA-56ADF6DB3771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1117735008"/>
+        <c:axId val="1117850656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1117735008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input VOltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117850656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1117850656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain Modulation Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117735008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADA9735-A34A-4CC9-A909-A95ACE0676C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43396</cdr:x>
+      <cdr:y>0.62793</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4525</cdr:x>
+      <cdr:y>0.65059</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Oval 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8557F65A-7F9D-4D03-85F0-8787F10CF567}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2909939" y="3489914"/>
+          <a:ext cx="124338" cy="125970"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,36 +2707,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7BE309-9B4D-4403-A452-8A5AC4BA0B42}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -723,19 +2766,19 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="6">
         <f xml:space="preserve"> INT(B2*$C$20/$B$28)</f>
         <v>933</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <f xml:space="preserve"> INT(C2*$C$20/$B$28)</f>
         <v>1399</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="6">
         <f xml:space="preserve"> INT(D2*$C$20/$B$28)</f>
         <v>2255</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J2" t="s">
@@ -764,19 +2807,19 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <f xml:space="preserve"> INT(B3*$B$20/$B$28)</f>
         <v>2482</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <f xml:space="preserve"> INT(C3*$B$20/$B$28)</f>
         <v>2048</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="6">
         <f xml:space="preserve"> INT(D3*$B$20/$B$28)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
@@ -811,7 +2854,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="7"/>
       <c r="J4" t="s">
         <v>18</v>
       </c>
@@ -842,19 +2885,19 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
-        <f xml:space="preserve"> INT((F2*$C$22-F3))</f>
-        <v>1250</v>
-      </c>
-      <c r="G5" s="11">
-        <f xml:space="preserve"> INT((G2*$C$22-G3))</f>
-        <v>3548</v>
-      </c>
-      <c r="H5" s="11">
-        <f xml:space="preserve"> INT((H2*$C$22-H3))</f>
-        <v>9020</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="F5" s="6">
+        <f xml:space="preserve"> INT((F2*$C$21-F3))</f>
+        <v>1240</v>
+      </c>
+      <c r="G5" s="6">
+        <f xml:space="preserve"> INT((G2*$C$21-G3))</f>
+        <v>3534</v>
+      </c>
+      <c r="H5" s="6">
+        <f xml:space="preserve"> INT((H2*$C$21-H3))</f>
+        <v>8997</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J5" t="s">
@@ -886,15 +2929,15 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="7"/>
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="6">
         <f>INT(K2*C20/B28)</f>
         <v>1264</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="19" t="str">
         <f>"0x" &amp; DEC2HEX(K6,4)</f>
         <v>0x04F0</v>
       </c>
@@ -921,16 +2964,16 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="7"/>
       <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="6">
         <f>INT(K3*B20/B28)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" ref="L7:L9" si="2">"0x" &amp; DEC2HEX(K7,4)</f>
+      <c r="L7" s="19" t="str">
+        <f t="shared" ref="L7" si="2">"0x" &amp; DEC2HEX(K7,4)</f>
         <v>0x0000</v>
       </c>
     </row>
@@ -943,24 +2986,27 @@
         <v>0.39310344827586213</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:D8" si="3">$C$7/C7</f>
+        <f t="shared" ref="C8" si="3">$C$7/C7</f>
         <v>1</v>
       </c>
       <c r="D8" s="4">
         <f>$C$7/B7</f>
         <v>2.85</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7"/>
       <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="11">
-        <f>(G2*C22-G3)</f>
-        <v>3548</v>
-      </c>
-      <c r="L8" s="12" t="str">
+      <c r="K8" s="6">
+        <f>(G2*C21-G3)</f>
+        <v>3534.01</v>
+      </c>
+      <c r="L8" s="19" t="str">
         <f>"0x" &amp; DEC2HEX(K8,4)</f>
-        <v>0x0DDC</v>
+        <v>0x0DCE</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -972,7 +3018,7 @@
         <v>0.39310344827586208</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:D9" si="4">($C$2-$C$3)/(C2-C3)</f>
+        <f t="shared" ref="C9" si="4">($C$2-$C$3)/(C2-C3)</f>
         <v>1</v>
       </c>
       <c r="D9" s="4">
@@ -981,63 +3027,68 @@
       </c>
       <c r="F9" s="4">
         <f>$G$5/H5</f>
-        <v>0.39334811529933483</v>
+        <v>0.39279759919973323</v>
       </c>
       <c r="G9" s="4">
-        <f>$G$5/G5</f>
-        <v>1</v>
+        <f>$G$5/G5 * (1-1/2^15)</f>
+        <v>0.999969482421875</v>
       </c>
       <c r="H9" s="4">
         <f>$G$5/F5</f>
-        <v>2.8384</v>
-      </c>
-      <c r="I9" s="12" t="s">
+        <v>2.85</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="11">
-        <f>(K6*C22-K7)</f>
-        <v>5056</v>
-      </c>
-      <c r="L9" s="12" t="str">
+      <c r="K9" s="6">
+        <f>(K6*C21-K7)</f>
+        <v>5043.3600000000006</v>
+      </c>
+      <c r="L9" s="19" t="str">
         <f>"0x" &amp; DEC2HEX(K9,4)</f>
-        <v>0x13C0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I10" s="12"/>
+        <v>0x13B3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="7"/>
       <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="6">
         <f>$B$13</f>
         <v>2</v>
       </c>
-      <c r="L10" s="12" t="str">
+      <c r="L10" s="19" t="str">
         <f>"0x" &amp; DEC2HEX(K10,4)</f>
         <v>0x0002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="7"/>
       <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="6">
         <f>K8/2^K10</f>
-        <v>887</v>
-      </c>
-      <c r="L11" s="12" t="str">
+        <v>883.50250000000005</v>
+      </c>
+      <c r="L11" s="19" t="str">
         <f>"0x" &amp; DEC2HEX(K11,4)</f>
-        <v>0x0377</v>
+        <v>0x0373</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1048,27 +3099,27 @@
         <f>D9/2^B13</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <f>INT(B12*(2^15-1))</f>
         <v>23346</v>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="8" t="str">
         <f>"0x" &amp; DEC2HEX(C12, 4)</f>
         <v>0x5B32</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="34">
         <f>H9/2^F13</f>
-        <v>0.70960000000000001</v>
-      </c>
-      <c r="G12" s="11">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="G12" s="31">
         <f>H5/2^$B$13</f>
-        <v>2255</v>
-      </c>
-      <c r="H12" s="13" t="str">
+        <v>2249.25</v>
+      </c>
+      <c r="H12" s="28" t="str">
         <f>"0x" &amp; DEC2HEX(G12, 4)</f>
-        <v>0x08CF</v>
-      </c>
-      <c r="I12" s="12" t="s">
+        <v>0x08C9</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="J12" t="s">
@@ -1076,11 +3127,11 @@
       </c>
       <c r="K12" s="4">
         <f>G14/K9</f>
-        <v>0.17543512658227847</v>
-      </c>
-      <c r="L12" s="12" t="str">
+        <v>0.17518083182640143</v>
+      </c>
+      <c r="L12" s="19" t="str">
         <f>"0x" &amp; DEC2HEX(INT(K12*2^15),4)</f>
-        <v>0x1674</v>
+        <v>0x166C</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,31 +3142,31 @@
         <f>CEILING(LOG(D9, 2), 1)</f>
         <v>2</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <f t="shared" ref="C13" si="5">INT(B13*(2^15-1))</f>
         <v>65534</v>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="8" t="str">
         <f t="shared" ref="D13:D14" si="6">"0x" &amp; DEC2HEX(C13, 4)</f>
         <v>0xFFFE</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="35">
         <f>CEILING(LOG(H9, 2), 1)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="32">
         <f t="shared" ref="G13" si="7">INT(F13*(2^15-1))</f>
         <v>65534</v>
       </c>
-      <c r="H13" s="13" t="str">
+      <c r="H13" s="29" t="str">
         <f t="shared" ref="H13" si="8">"0x" &amp; DEC2HEX(G13, 4)</f>
         <v>0xFFFE</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1123,47 +3174,78 @@
         <f>C9/2^B13</f>
         <v>0.25</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <f>INT(B14*(2^15-1))</f>
         <v>8191</v>
       </c>
-      <c r="D14" s="13" t="str">
+      <c r="D14" s="8" t="str">
         <f t="shared" si="6"/>
         <v>0x1FFF</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="36">
         <f>G9/2^F13</f>
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="11">
+        <v>0.24999237060546875</v>
+      </c>
+      <c r="G14" s="33">
         <f>G5/2^$B$13</f>
-        <v>887</v>
-      </c>
-      <c r="H14" s="13" t="str">
+        <v>883.5</v>
+      </c>
+      <c r="H14" s="30" t="str">
         <f>"0x" &amp; DEC2HEX(G14, 4)</f>
-        <v>0x0377</v>
-      </c>
-      <c r="I14" s="12" t="s">
+        <v>0x0373</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="34">
+        <f xml:space="preserve"> C21/2^B13</f>
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G16" s="37">
+        <f xml:space="preserve"> INT(F16*(2^15-1))</f>
+        <v>32685</v>
+      </c>
+      <c r="H16" s="28" t="str">
+        <f t="shared" ref="H16" si="9">"0x" &amp; DEC2HEX(G16, 4)</f>
+        <v>0x7FAD</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="36">
+        <f xml:space="preserve"> 2^B13</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="33">
+        <f xml:space="preserve"> -$B$13</f>
+        <v>-2</v>
+      </c>
+      <c r="H17" s="30" t="str">
+        <f>"0x" &amp; RIGHT(DEC2HEX(G17, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +3259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +3273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1207,12 +3289,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="4">
+      <c r="C21" s="18">
         <f>B20/C20</f>
         <v>3.99</v>
       </c>
@@ -1220,7 +3302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1233,26 +3315,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="9">
         <v>3.3</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +3345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +3357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1287,14 +3369,2574 @@
         <v>15</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4">
+        <f>-2^B31</f>
+        <v>-32768</v>
+      </c>
+      <c r="C32" s="18">
+        <f>B32/2^B31</f>
+        <v>-1</v>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(B32, 4), 4)</f>
+        <v>0x8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4">
+        <f>2^B31-1</f>
+        <v>32767</v>
+      </c>
+      <c r="C33" s="4">
+        <f>B33/2^B31</f>
+        <v>0.999969482421875</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(B33, 4), 4)</f>
+        <v>0x7FFF</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5222AAFD-C2F6-44A9-B39F-719EF44F31B4}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C2" s="3">
+        <f>A2-B2</f>
+        <v>2.7</v>
+      </c>
+      <c r="D2" s="15">
+        <f xml:space="preserve"> INT(A2*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>933</v>
+      </c>
+      <c r="E2" s="15">
+        <f xml:space="preserve"> INT(B2*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F2" s="15">
+        <f xml:space="preserve"> INT(D2*Sheet1!$C$21-Sheet2!E2)</f>
+        <v>1674</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Sheet1!$G$5/Sheet2!F2</f>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="H2" s="21">
+        <f>G2/2^I2</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I2" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H2*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x438D</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(-I2, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C19" si="0">A3-B3</f>
+        <v>3.2</v>
+      </c>
+      <c r="D3" s="15">
+        <f xml:space="preserve"> INT(A3*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1011</v>
+      </c>
+      <c r="E3" s="15">
+        <f xml:space="preserve"> INT(B3*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F3" s="15">
+        <f xml:space="preserve"> INT(D3*Sheet1!$C$21-Sheet2!E3)</f>
+        <v>1985</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Sheet1!$G$5/Sheet2!F3</f>
+        <v>1.7803526448362721</v>
+      </c>
+      <c r="H3" s="21">
+        <f>G3/2^I3</f>
+        <v>0.44508816120906802</v>
+      </c>
+      <c r="I3" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H3*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x38F8</v>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f t="shared" ref="K3:K19" si="1" xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(-I3, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="D4" s="15">
+        <f xml:space="preserve"> INT(A4*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1088</v>
+      </c>
+      <c r="E4" s="15">
+        <f xml:space="preserve"> INT(B4*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F4" s="15">
+        <f xml:space="preserve"> INT(D4*Sheet1!$C$21-Sheet2!E4)</f>
+        <v>2293</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Sheet1!$G$5/Sheet2!F4</f>
+        <v>1.5412123855211513</v>
+      </c>
+      <c r="H4" s="21">
+        <f>G4/2^I4</f>
+        <v>0.38530309638028781</v>
+      </c>
+      <c r="I4" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H4*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x3151</v>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="D5" s="15">
+        <f xml:space="preserve"> INT(A5*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1166</v>
+      </c>
+      <c r="E5" s="15">
+        <f xml:space="preserve"> INT(B5*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F5" s="15">
+        <f xml:space="preserve"> INT(D5*Sheet1!$C$21-Sheet2!E5)</f>
+        <v>2604</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Sheet1!$G$5/Sheet2!F5</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="H5" s="21">
+        <f>G5/2^I5</f>
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="I5" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H5*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x2B6D</v>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="D6" s="15">
+        <f xml:space="preserve"> INT(A6*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1244</v>
+      </c>
+      <c r="E6" s="15">
+        <f xml:space="preserve"> INT(B6*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F6" s="15">
+        <f xml:space="preserve"> INT(D6*Sheet1!$C$21-Sheet2!E6)</f>
+        <v>2915</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Sheet1!$G$5/Sheet2!F6</f>
+        <v>1.2123499142367067</v>
+      </c>
+      <c r="H6" s="21">
+        <f>G6/2^I6</f>
+        <v>0.30308747855917667</v>
+      </c>
+      <c r="I6" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H6*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x26CB</v>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="D7" s="15">
+        <f xml:space="preserve"> INT(A7*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1322</v>
+      </c>
+      <c r="E7" s="15">
+        <f xml:space="preserve"> INT(B7*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F7" s="15">
+        <f xml:space="preserve"> INT(D7*Sheet1!$C$21-Sheet2!E7)</f>
+        <v>3226</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Sheet1!$G$5/Sheet2!F7</f>
+        <v>1.0954742715437074</v>
+      </c>
+      <c r="H7" s="21">
+        <f>G7/2^I7</f>
+        <v>0.27386856788592684</v>
+      </c>
+      <c r="I7" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H7*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x230D</v>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="D8" s="15">
+        <f xml:space="preserve"> INT(A8*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1399</v>
+      </c>
+      <c r="E8" s="15">
+        <f xml:space="preserve"> INT(B8*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F8" s="15">
+        <f xml:space="preserve"> INT(D8*Sheet1!$C$21-Sheet2!E8)</f>
+        <v>3534</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Sheet1!$G$5/Sheet2!F8</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <f>G8/2^I8</f>
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H8*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1FFF</v>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="D9" s="15">
+        <f xml:space="preserve"> INT(A9*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1477</v>
+      </c>
+      <c r="E9" s="15">
+        <f xml:space="preserve"> INT(B9*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F9" s="15">
+        <f xml:space="preserve"> INT(D9*Sheet1!$C$21-Sheet2!E9)</f>
+        <v>3845</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Sheet1!$G$5/Sheet2!F9</f>
+        <v>0.91911573472041608</v>
+      </c>
+      <c r="H9" s="21">
+        <f>G9/2^I9</f>
+        <v>0.22977893368010402</v>
+      </c>
+      <c r="I9" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H9*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1D69</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="D10" s="15">
+        <f xml:space="preserve"> INT(A10*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1555</v>
+      </c>
+      <c r="E10" s="15">
+        <f xml:space="preserve"> INT(B10*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F10" s="15">
+        <f xml:space="preserve"> INT(D10*Sheet1!$C$21-Sheet2!E10)</f>
+        <v>4156</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Sheet1!$G$5/Sheet2!F10</f>
+        <v>0.85033686236766126</v>
+      </c>
+      <c r="H10" s="21">
+        <f>G10/2^I10</f>
+        <v>0.21258421559191532</v>
+      </c>
+      <c r="I10" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H10*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1B35</v>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="D11" s="15">
+        <f xml:space="preserve"> INT(A11*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1633</v>
+      </c>
+      <c r="E11" s="15">
+        <f xml:space="preserve"> INT(B11*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F11" s="15">
+        <f xml:space="preserve"> INT(D11*Sheet1!$C$21-Sheet2!E11)</f>
+        <v>4467</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Sheet1!$G$5/Sheet2!F11</f>
+        <v>0.79113498992612497</v>
+      </c>
+      <c r="H11" s="21">
+        <f>G11/2^I11</f>
+        <v>0.19778374748153124</v>
+      </c>
+      <c r="I11" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H11*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1950</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="D12" s="15">
+        <f xml:space="preserve"> INT(A12*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1710</v>
+      </c>
+      <c r="E12" s="15">
+        <f xml:space="preserve"> INT(B12*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F12" s="15">
+        <f xml:space="preserve"> INT(D12*Sheet1!$C$21-Sheet2!E12)</f>
+        <v>4774</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Sheet1!$G$5/Sheet2!F12</f>
+        <v>0.74025974025974028</v>
+      </c>
+      <c r="H12" s="21">
+        <f>G12/2^I12</f>
+        <v>0.18506493506493507</v>
+      </c>
+      <c r="I12" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H12*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x17B0</v>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D13" s="15">
+        <f xml:space="preserve"> INT(A13*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1788</v>
+      </c>
+      <c r="E13" s="15">
+        <f xml:space="preserve"> INT(B13*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F13" s="15">
+        <f xml:space="preserve"> INT(D13*Sheet1!$C$21-Sheet2!E13)</f>
+        <v>5086</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Sheet1!$G$5/Sheet2!F13</f>
+        <v>0.69484860401101056</v>
+      </c>
+      <c r="H13" s="21">
+        <f>G13/2^I13</f>
+        <v>0.17371215100275264</v>
+      </c>
+      <c r="I13" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H13*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x163C</v>
+      </c>
+      <c r="K13" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D14" s="15">
+        <f xml:space="preserve"> INT(A14*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1866</v>
+      </c>
+      <c r="E14" s="15">
+        <f xml:space="preserve"> INT(B14*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F14" s="15">
+        <f xml:space="preserve"> INT(D14*Sheet1!$C$21-Sheet2!E14)</f>
+        <v>5397</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Sheet1!$G$5/Sheet2!F14</f>
+        <v>0.6548082267926626</v>
+      </c>
+      <c r="H14" s="21">
+        <f>G14/2^I14</f>
+        <v>0.16370205669816565</v>
+      </c>
+      <c r="I14" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H14*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x14F4</v>
+      </c>
+      <c r="K14" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D15" s="15">
+        <f xml:space="preserve"> INT(A15*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1944</v>
+      </c>
+      <c r="E15" s="15">
+        <f xml:space="preserve"> INT(B15*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F15" s="15">
+        <f xml:space="preserve"> INT(D15*Sheet1!$C$21-Sheet2!E15)</f>
+        <v>5708</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Sheet1!$G$5/Sheet2!F15</f>
+        <v>0.61913104414856346</v>
+      </c>
+      <c r="H15" s="21">
+        <f>G15/2^I15</f>
+        <v>0.15478276103714086</v>
+      </c>
+      <c r="I15" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H15*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x13CF</v>
+      </c>
+      <c r="K15" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D16" s="15">
+        <f xml:space="preserve"> INT(A16*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2022</v>
+      </c>
+      <c r="E16" s="15">
+        <f xml:space="preserve"> INT(B16*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F16" s="15">
+        <f xml:space="preserve"> INT(D16*Sheet1!$C$21-Sheet2!E16)</f>
+        <v>6019</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Sheet1!$G$5/Sheet2!F16</f>
+        <v>0.58714072105000825</v>
+      </c>
+      <c r="H16" s="21">
+        <f>G16/2^I16</f>
+        <v>0.14678518026250206</v>
+      </c>
+      <c r="I16" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H16*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x12C9</v>
+      </c>
+      <c r="K16" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D17" s="15">
+        <f xml:space="preserve"> INT(A17*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2099</v>
+      </c>
+      <c r="E17" s="15">
+        <f xml:space="preserve"> INT(B17*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F17" s="15">
+        <f xml:space="preserve"> INT(D17*Sheet1!$C$21-Sheet2!E17)</f>
+        <v>6327</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Sheet1!$G$5/Sheet2!F17</f>
+        <v>0.55855855855855852</v>
+      </c>
+      <c r="H17" s="21">
+        <f>G17/2^I17</f>
+        <v>0.13963963963963963</v>
+      </c>
+      <c r="I17" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H17*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x11DF</v>
+      </c>
+      <c r="K17" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+      <c r="D18" s="15">
+        <f xml:space="preserve"> INT(A18*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2177</v>
+      </c>
+      <c r="E18" s="15">
+        <f xml:space="preserve"> INT(B18*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F18" s="15">
+        <f xml:space="preserve"> INT(D18*Sheet1!$C$21-Sheet2!E18)</f>
+        <v>6638</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Sheet1!$G$5/Sheet2!F18</f>
+        <v>0.53238927387767399</v>
+      </c>
+      <c r="H18" s="21">
+        <f>G18/2^I18</f>
+        <v>0.1330973184694185</v>
+      </c>
+      <c r="I18" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H18*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1109</v>
+      </c>
+      <c r="K18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="D19" s="15">
+        <f xml:space="preserve"> INT(A19*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2255</v>
+      </c>
+      <c r="E19" s="15">
+        <f xml:space="preserve"> INT(B19*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2048</v>
+      </c>
+      <c r="F19" s="15">
+        <f xml:space="preserve"> INT(D19*Sheet1!$C$21-Sheet2!E19)</f>
+        <v>6949</v>
+      </c>
+      <c r="G19" s="3">
+        <f>Sheet1!$G$5/Sheet2!F19</f>
+        <v>0.50856238307670165</v>
+      </c>
+      <c r="H19" s="21">
+        <f>G19/2^I19</f>
+        <v>0.12714059576917541</v>
+      </c>
+      <c r="I19" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H19*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1046</v>
+      </c>
+      <c r="K19" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="3">
+        <f>A22-B22</f>
+        <v>5.4</v>
+      </c>
+      <c r="D22" s="15">
+        <f xml:space="preserve"> INT(A22*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>933</v>
+      </c>
+      <c r="E22" s="15">
+        <f xml:space="preserve"> INT(B22*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F22" s="15">
+        <f xml:space="preserve"> INT(D22*Sheet1!$C$21-Sheet2!E22)</f>
+        <v>3350</v>
+      </c>
+      <c r="G22" s="3">
+        <f>Sheet1!$G$5/Sheet2!F22</f>
+        <v>1.0549253731343284</v>
+      </c>
+      <c r="H22" s="21">
+        <f>G22/2^I22</f>
+        <v>0.26373134328358211</v>
+      </c>
+      <c r="I22" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H22*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x21C1</v>
+      </c>
+      <c r="K22" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(-I22, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:C39" si="2">A23-B23</f>
+        <v>5.9</v>
+      </c>
+      <c r="D23" s="15">
+        <f xml:space="preserve"> INT(A23*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1011</v>
+      </c>
+      <c r="E23" s="15">
+        <f xml:space="preserve"> INT(B23*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F23" s="15">
+        <f xml:space="preserve"> INT(D23*Sheet1!$C$21-Sheet2!E23)</f>
+        <v>3661</v>
+      </c>
+      <c r="G23" s="3">
+        <f>Sheet1!$G$5/Sheet2!F23</f>
+        <v>0.96531002458344717</v>
+      </c>
+      <c r="H23" s="21">
+        <f>G23/2^I23</f>
+        <v>0.24132750614586179</v>
+      </c>
+      <c r="I23" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H23*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1EE3</v>
+      </c>
+      <c r="K23" s="22" t="str">
+        <f t="shared" ref="K23:K39" si="3" xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(-I23, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="D24" s="15">
+        <f xml:space="preserve"> INT(A24*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1088</v>
+      </c>
+      <c r="E24" s="15">
+        <f xml:space="preserve"> INT(B24*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F24" s="15">
+        <f xml:space="preserve"> INT(D24*Sheet1!$C$21-Sheet2!E24)</f>
+        <v>3969</v>
+      </c>
+      <c r="G24" s="3">
+        <f>Sheet1!$G$5/Sheet2!F24</f>
+        <v>0.89040060468631899</v>
+      </c>
+      <c r="H24" s="21">
+        <f>G24/2^I24</f>
+        <v>0.22260015117157975</v>
+      </c>
+      <c r="I24" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H24*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1C7D</v>
+      </c>
+      <c r="K24" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="D25" s="15">
+        <f xml:space="preserve"> INT(A25*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1166</v>
+      </c>
+      <c r="E25" s="15">
+        <f xml:space="preserve"> INT(B25*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F25" s="15">
+        <f xml:space="preserve"> INT(D25*Sheet1!$C$21-Sheet2!E25)</f>
+        <v>4280</v>
+      </c>
+      <c r="G25" s="3">
+        <f>Sheet1!$G$5/Sheet2!F25</f>
+        <v>0.82570093457943927</v>
+      </c>
+      <c r="H25" s="21">
+        <f>G25/2^I25</f>
+        <v>0.20642523364485982</v>
+      </c>
+      <c r="I25" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H25*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1A6B</v>
+      </c>
+      <c r="K25" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+      <c r="D26" s="15">
+        <f xml:space="preserve"> INT(A26*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1244</v>
+      </c>
+      <c r="E26" s="15">
+        <f xml:space="preserve"> INT(B26*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F26" s="15">
+        <f xml:space="preserve"> INT(D26*Sheet1!$C$21-Sheet2!E26)</f>
+        <v>4591</v>
+      </c>
+      <c r="G26" s="3">
+        <f>Sheet1!$G$5/Sheet2!F26</f>
+        <v>0.76976693530821172</v>
+      </c>
+      <c r="H26" s="21">
+        <f>G26/2^I26</f>
+        <v>0.19244173382705293</v>
+      </c>
+      <c r="I26" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H26*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x18A1</v>
+      </c>
+      <c r="K26" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="D27" s="15">
+        <f xml:space="preserve"> INT(A27*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1322</v>
+      </c>
+      <c r="E27" s="15">
+        <f xml:space="preserve"> INT(B27*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F27" s="15">
+        <f xml:space="preserve"> INT(D27*Sheet1!$C$21-Sheet2!E27)</f>
+        <v>4902</v>
+      </c>
+      <c r="G27" s="3">
+        <f>Sheet1!$G$5/Sheet2!F27</f>
+        <v>0.72093023255813948</v>
+      </c>
+      <c r="H27" s="21">
+        <f>G27/2^I27</f>
+        <v>0.18023255813953487</v>
+      </c>
+      <c r="I27" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H27*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1711</v>
+      </c>
+      <c r="K27" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="D28" s="15">
+        <f xml:space="preserve"> INT(A28*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1399</v>
+      </c>
+      <c r="E28" s="15">
+        <f xml:space="preserve"> INT(B28*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F28" s="15">
+        <f xml:space="preserve"> INT(D28*Sheet1!$C$21-Sheet2!E28)</f>
+        <v>5210</v>
+      </c>
+      <c r="G28" s="3">
+        <f>Sheet1!$G$5/Sheet2!F28</f>
+        <v>0.67831094049904028</v>
+      </c>
+      <c r="H28" s="21">
+        <f>G28/2^I28</f>
+        <v>0.16957773512476007</v>
+      </c>
+      <c r="I28" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J28" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H28*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x15B4</v>
+      </c>
+      <c r="K28" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="D29" s="15">
+        <f xml:space="preserve"> INT(A29*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1477</v>
+      </c>
+      <c r="E29" s="15">
+        <f xml:space="preserve"> INT(B29*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F29" s="15">
+        <f xml:space="preserve"> INT(D29*Sheet1!$C$21-Sheet2!E29)</f>
+        <v>5521</v>
+      </c>
+      <c r="G29" s="3">
+        <f>Sheet1!$G$5/Sheet2!F29</f>
+        <v>0.64010143090019922</v>
+      </c>
+      <c r="H29" s="21">
+        <f>G29/2^I29</f>
+        <v>0.1600253577250498</v>
+      </c>
+      <c r="I29" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H29*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x147B</v>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="D30" s="15">
+        <f xml:space="preserve"> INT(A30*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1555</v>
+      </c>
+      <c r="E30" s="15">
+        <f xml:space="preserve"> INT(B30*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F30" s="15">
+        <f xml:space="preserve"> INT(D30*Sheet1!$C$21-Sheet2!E30)</f>
+        <v>5832</v>
+      </c>
+      <c r="G30" s="3">
+        <f>Sheet1!$G$5/Sheet2!F30</f>
+        <v>0.6059670781893004</v>
+      </c>
+      <c r="H30" s="21">
+        <f>G30/2^I30</f>
+        <v>0.1514917695473251</v>
+      </c>
+      <c r="I30" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H30*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1363</v>
+      </c>
+      <c r="K30" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="D31" s="15">
+        <f xml:space="preserve"> INT(A31*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1633</v>
+      </c>
+      <c r="E31" s="15">
+        <f xml:space="preserve"> INT(B31*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F31" s="15">
+        <f xml:space="preserve"> INT(D31*Sheet1!$C$21-Sheet2!E31)</f>
+        <v>6143</v>
+      </c>
+      <c r="G31" s="3">
+        <f>Sheet1!$G$5/Sheet2!F31</f>
+        <v>0.57528894676867981</v>
+      </c>
+      <c r="H31" s="21">
+        <f>G31/2^I31</f>
+        <v>0.14382223669216995</v>
+      </c>
+      <c r="I31" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J31" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H31*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1268</v>
+      </c>
+      <c r="K31" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+      <c r="D32" s="15">
+        <f xml:space="preserve"> INT(A32*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1710</v>
+      </c>
+      <c r="E32" s="15">
+        <f xml:space="preserve"> INT(B32*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F32" s="15">
+        <f xml:space="preserve"> INT(D32*Sheet1!$C$21-Sheet2!E32)</f>
+        <v>6450</v>
+      </c>
+      <c r="G32" s="3">
+        <f>Sheet1!$G$5/Sheet2!F32</f>
+        <v>0.54790697674418609</v>
+      </c>
+      <c r="H32" s="21">
+        <f>G32/2^I32</f>
+        <v>0.13697674418604652</v>
+      </c>
+      <c r="I32" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J32" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H32*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1188</v>
+      </c>
+      <c r="K32" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="2"/>
+        <v>10.9</v>
+      </c>
+      <c r="D33" s="15">
+        <f xml:space="preserve"> INT(A33*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1788</v>
+      </c>
+      <c r="E33" s="15">
+        <f xml:space="preserve"> INT(B33*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F33" s="15">
+        <f xml:space="preserve"> INT(D33*Sheet1!$C$21-Sheet2!E33)</f>
+        <v>6762</v>
+      </c>
+      <c r="G33" s="3">
+        <f>Sheet1!$G$5/Sheet2!F33</f>
+        <v>0.5226264418811003</v>
+      </c>
+      <c r="H33" s="21">
+        <f>G33/2^I33</f>
+        <v>0.13065661047027508</v>
+      </c>
+      <c r="I33" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H33*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x10B9</v>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="2"/>
+        <v>11.4</v>
+      </c>
+      <c r="D34" s="15">
+        <f xml:space="preserve"> INT(A34*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1866</v>
+      </c>
+      <c r="E34" s="15">
+        <f xml:space="preserve"> INT(B34*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F34" s="15">
+        <f xml:space="preserve"> INT(D34*Sheet1!$C$21-Sheet2!E34)</f>
+        <v>7073</v>
+      </c>
+      <c r="G34" s="3">
+        <f>Sheet1!$G$5/Sheet2!F34</f>
+        <v>0.49964654319242191</v>
+      </c>
+      <c r="H34" s="21">
+        <f>G34/2^I34</f>
+        <v>0.12491163579810548</v>
+      </c>
+      <c r="I34" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H34*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x0FFC</v>
+      </c>
+      <c r="K34" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="2"/>
+        <v>11.9</v>
+      </c>
+      <c r="D35" s="15">
+        <f xml:space="preserve"> INT(A35*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1944</v>
+      </c>
+      <c r="E35" s="15">
+        <f xml:space="preserve"> INT(B35*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F35" s="15">
+        <f xml:space="preserve"> INT(D35*Sheet1!$C$21-Sheet2!E35)</f>
+        <v>7384</v>
+      </c>
+      <c r="G35" s="3">
+        <f>Sheet1!$G$5/Sheet2!F35</f>
+        <v>0.478602383531961</v>
+      </c>
+      <c r="H35" s="21">
+        <f>G35/2^I35</f>
+        <v>0.11965059588299025</v>
+      </c>
+      <c r="I35" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J35" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H35*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x0F50</v>
+      </c>
+      <c r="K35" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+      <c r="D36" s="15">
+        <f xml:space="preserve"> INT(A36*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2022</v>
+      </c>
+      <c r="E36" s="15">
+        <f xml:space="preserve"> INT(B36*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F36" s="15">
+        <f xml:space="preserve"> INT(D36*Sheet1!$C$21-Sheet2!E36)</f>
+        <v>7695</v>
+      </c>
+      <c r="G36" s="3">
+        <f>Sheet1!$G$5/Sheet2!F36</f>
+        <v>0.45925925925925926</v>
+      </c>
+      <c r="H36" s="21">
+        <f>G36/2^I36</f>
+        <v>0.11481481481481481</v>
+      </c>
+      <c r="I36" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J36" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H36*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x0EB2</v>
+      </c>
+      <c r="K36" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="D37" s="15">
+        <f xml:space="preserve"> INT(A37*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2099</v>
+      </c>
+      <c r="E37" s="15">
+        <f xml:space="preserve"> INT(B37*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F37" s="15">
+        <f xml:space="preserve"> INT(D37*Sheet1!$C$21-Sheet2!E37)</f>
+        <v>8003</v>
+      </c>
+      <c r="G37" s="3">
+        <f>Sheet1!$G$5/Sheet2!F37</f>
+        <v>0.44158440584780706</v>
+      </c>
+      <c r="H37" s="21">
+        <f>G37/2^I37</f>
+        <v>0.11039610146195176</v>
+      </c>
+      <c r="I37" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J37" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H37*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x0E21</v>
+      </c>
+      <c r="K37" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>14</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="2"/>
+        <v>13.4</v>
+      </c>
+      <c r="D38" s="15">
+        <f xml:space="preserve"> INT(A38*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2177</v>
+      </c>
+      <c r="E38" s="15">
+        <f xml:space="preserve"> INT(B38*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F38" s="15">
+        <f xml:space="preserve"> INT(D38*Sheet1!$C$21-Sheet2!E38)</f>
+        <v>8314</v>
+      </c>
+      <c r="G38" s="3">
+        <f>Sheet1!$G$5/Sheet2!F38</f>
+        <v>0.42506615347606447</v>
+      </c>
+      <c r="H38" s="21">
+        <f>G38/2^I38</f>
+        <v>0.10626653836901612</v>
+      </c>
+      <c r="I38" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J38" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H38*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x0D9A</v>
+      </c>
+      <c r="K38" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="2"/>
+        <v>13.9</v>
+      </c>
+      <c r="D39" s="15">
+        <f xml:space="preserve"> INT(A39*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2255</v>
+      </c>
+      <c r="E39" s="15">
+        <f xml:space="preserve"> INT(B39*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>372</v>
+      </c>
+      <c r="F39" s="15">
+        <f xml:space="preserve"> INT(D39*Sheet1!$C$21-Sheet2!E39)</f>
+        <v>8625</v>
+      </c>
+      <c r="G39" s="3">
+        <f>Sheet1!$G$5/Sheet2!F39</f>
+        <v>0.40973913043478261</v>
+      </c>
+      <c r="H39" s="21">
+        <f>G39/2^I39</f>
+        <v>0.10243478260869565</v>
+      </c>
+      <c r="I39" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J39" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H39*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x0D1C</v>
+      </c>
+      <c r="K39" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <f>A42-B42</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="15">
+        <f xml:space="preserve"> INT(A42*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>933</v>
+      </c>
+      <c r="E42" s="15">
+        <f xml:space="preserve"> INT(B42*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F42" s="15">
+        <f xml:space="preserve"> INT(D42*Sheet1!$C$21-Sheet2!E42)</f>
+        <v>1240</v>
+      </c>
+      <c r="G42" s="3">
+        <f>Sheet1!$G$5/Sheet2!F42</f>
+        <v>2.85</v>
+      </c>
+      <c r="H42" s="21">
+        <f>G42/2^I42</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="I42" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H42*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x5B32</v>
+      </c>
+      <c r="K42" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(-I42, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:C59" si="4">A43-B43</f>
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="15">
+        <f xml:space="preserve"> INT(A43*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1011</v>
+      </c>
+      <c r="E43" s="15">
+        <f xml:space="preserve"> INT(B43*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F43" s="15">
+        <f xml:space="preserve"> INT(D43*Sheet1!$C$21-Sheet2!E43)</f>
+        <v>1551</v>
+      </c>
+      <c r="G43" s="3">
+        <f>Sheet1!$G$5/Sheet2!F43</f>
+        <v>2.2785299806576402</v>
+      </c>
+      <c r="H43" s="21">
+        <f>G43/2^I43</f>
+        <v>0.56963249516441006</v>
+      </c>
+      <c r="I43" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J43" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H43*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x48E9</v>
+      </c>
+      <c r="K43" s="22" t="str">
+        <f t="shared" ref="K43:K59" si="5" xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(-I43, 4), 4)</f>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D44" s="15">
+        <f xml:space="preserve"> INT(A44*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1088</v>
+      </c>
+      <c r="E44" s="15">
+        <f xml:space="preserve"> INT(B44*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F44" s="15">
+        <f xml:space="preserve"> INT(D44*Sheet1!$C$21-Sheet2!E44)</f>
+        <v>1859</v>
+      </c>
+      <c r="G44" s="3">
+        <f>Sheet1!$G$5/Sheet2!F44</f>
+        <v>1.9010220548682086</v>
+      </c>
+      <c r="H44" s="21">
+        <f>G44/2^I44</f>
+        <v>0.47525551371705216</v>
+      </c>
+      <c r="I44" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H44*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x3CD4</v>
+      </c>
+      <c r="K44" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="D45" s="15">
+        <f xml:space="preserve"> INT(A45*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1166</v>
+      </c>
+      <c r="E45" s="15">
+        <f xml:space="preserve"> INT(B45*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F45" s="15">
+        <f xml:space="preserve"> INT(D45*Sheet1!$C$21-Sheet2!E45)</f>
+        <v>2170</v>
+      </c>
+      <c r="G45" s="3">
+        <f>Sheet1!$G$5/Sheet2!F45</f>
+        <v>1.6285714285714286</v>
+      </c>
+      <c r="H45" s="21">
+        <f>G45/2^I45</f>
+        <v>0.40714285714285714</v>
+      </c>
+      <c r="I45" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J45" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H45*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x341C</v>
+      </c>
+      <c r="K45" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D46" s="15">
+        <f xml:space="preserve"> INT(A46*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1244</v>
+      </c>
+      <c r="E46" s="15">
+        <f xml:space="preserve"> INT(B46*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F46" s="15">
+        <f xml:space="preserve"> INT(D46*Sheet1!$C$21-Sheet2!E46)</f>
+        <v>2481</v>
+      </c>
+      <c r="G46" s="3">
+        <f>Sheet1!$G$5/Sheet2!F46</f>
+        <v>1.4244256348246676</v>
+      </c>
+      <c r="H46" s="21">
+        <f>G46/2^I46</f>
+        <v>0.35610640870616689</v>
+      </c>
+      <c r="I46" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H46*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x2D94</v>
+      </c>
+      <c r="K46" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="15">
+        <f xml:space="preserve"> INT(A47*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1322</v>
+      </c>
+      <c r="E47" s="15">
+        <f xml:space="preserve"> INT(B47*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F47" s="15">
+        <f xml:space="preserve"> INT(D47*Sheet1!$C$21-Sheet2!E47)</f>
+        <v>2792</v>
+      </c>
+      <c r="G47" s="3">
+        <f>Sheet1!$G$5/Sheet2!F47</f>
+        <v>1.265759312320917</v>
+      </c>
+      <c r="H47" s="21">
+        <f>G47/2^I47</f>
+        <v>0.31643982808022925</v>
+      </c>
+      <c r="I47" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J47" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H47*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x2880</v>
+      </c>
+      <c r="K47" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>9</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D48" s="15">
+        <f xml:space="preserve"> INT(A48*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1399</v>
+      </c>
+      <c r="E48" s="15">
+        <f xml:space="preserve"> INT(B48*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F48" s="15">
+        <f xml:space="preserve"> INT(D48*Sheet1!$C$21-Sheet2!E48)</f>
+        <v>3100</v>
+      </c>
+      <c r="G48" s="3">
+        <f>Sheet1!$G$5/Sheet2!F48</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H48" s="21">
+        <f>G48/2^I48</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I48" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H48*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x247A</v>
+      </c>
+      <c r="K48" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="D49" s="15">
+        <f xml:space="preserve"> INT(A49*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1477</v>
+      </c>
+      <c r="E49" s="15">
+        <f xml:space="preserve"> INT(B49*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F49" s="15">
+        <f xml:space="preserve"> INT(D49*Sheet1!$C$21-Sheet2!E49)</f>
+        <v>3411</v>
+      </c>
+      <c r="G49" s="3">
+        <f>Sheet1!$G$5/Sheet2!F49</f>
+        <v>1.0360598065083553</v>
+      </c>
+      <c r="H49" s="21">
+        <f>G49/2^I49</f>
+        <v>0.25901495162708882</v>
+      </c>
+      <c r="I49" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H49*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x2127</v>
+      </c>
+      <c r="K49" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D50" s="15">
+        <f xml:space="preserve"> INT(A50*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1555</v>
+      </c>
+      <c r="E50" s="15">
+        <f xml:space="preserve"> INT(B50*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F50" s="15">
+        <f xml:space="preserve"> INT(D50*Sheet1!$C$21-Sheet2!E50)</f>
+        <v>3722</v>
+      </c>
+      <c r="G50" s="3">
+        <f>Sheet1!$G$5/Sheet2!F50</f>
+        <v>0.94948952176249324</v>
+      </c>
+      <c r="H50" s="21">
+        <f>G50/2^I50</f>
+        <v>0.23737238044062331</v>
+      </c>
+      <c r="I50" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J50" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H50*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1E61</v>
+      </c>
+      <c r="K50" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="D51" s="15">
+        <f xml:space="preserve"> INT(A51*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1633</v>
+      </c>
+      <c r="E51" s="15">
+        <f xml:space="preserve"> INT(B51*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F51" s="15">
+        <f xml:space="preserve"> INT(D51*Sheet1!$C$21-Sheet2!E51)</f>
+        <v>4033</v>
+      </c>
+      <c r="G51" s="3">
+        <f>Sheet1!$G$5/Sheet2!F51</f>
+        <v>0.87627076617902311</v>
+      </c>
+      <c r="H51" s="21">
+        <f>G51/2^I51</f>
+        <v>0.21906769154475578</v>
+      </c>
+      <c r="I51" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J51" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H51*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1C0A</v>
+      </c>
+      <c r="K51" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>11</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D52" s="15">
+        <f xml:space="preserve"> INT(A52*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1710</v>
+      </c>
+      <c r="E52" s="15">
+        <f xml:space="preserve"> INT(B52*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F52" s="15">
+        <f xml:space="preserve"> INT(D52*Sheet1!$C$21-Sheet2!E52)</f>
+        <v>4340</v>
+      </c>
+      <c r="G52" s="3">
+        <f>Sheet1!$G$5/Sheet2!F52</f>
+        <v>0.81428571428571428</v>
+      </c>
+      <c r="H52" s="21">
+        <f>G52/2^I52</f>
+        <v>0.20357142857142857</v>
+      </c>
+      <c r="I52" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J52" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H52*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1A0E</v>
+      </c>
+      <c r="K52" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="D53" s="15">
+        <f xml:space="preserve"> INT(A53*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1788</v>
+      </c>
+      <c r="E53" s="15">
+        <f xml:space="preserve"> INT(B53*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F53" s="15">
+        <f xml:space="preserve"> INT(D53*Sheet1!$C$21-Sheet2!E53)</f>
+        <v>4652</v>
+      </c>
+      <c r="G53" s="3">
+        <f>Sheet1!$G$5/Sheet2!F53</f>
+        <v>0.75967325881341363</v>
+      </c>
+      <c r="H53" s="21">
+        <f>G53/2^I53</f>
+        <v>0.18991831470335341</v>
+      </c>
+      <c r="I53" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J53" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H53*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x184F</v>
+      </c>
+      <c r="K53" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D54" s="15">
+        <f xml:space="preserve"> INT(A54*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1866</v>
+      </c>
+      <c r="E54" s="15">
+        <f xml:space="preserve"> INT(B54*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F54" s="15">
+        <f xml:space="preserve"> INT(D54*Sheet1!$C$21-Sheet2!E54)</f>
+        <v>4963</v>
+      </c>
+      <c r="G54" s="3">
+        <f>Sheet1!$G$5/Sheet2!F54</f>
+        <v>0.71206931291557529</v>
+      </c>
+      <c r="H54" s="21">
+        <f>G54/2^I54</f>
+        <v>0.17801732822889382</v>
+      </c>
+      <c r="I54" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J54" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H54*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x16C9</v>
+      </c>
+      <c r="K54" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="D55" s="15">
+        <f xml:space="preserve"> INT(A55*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>1944</v>
+      </c>
+      <c r="E55" s="15">
+        <f xml:space="preserve"> INT(B55*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F55" s="15">
+        <f xml:space="preserve"> INT(D55*Sheet1!$C$21-Sheet2!E55)</f>
+        <v>5274</v>
+      </c>
+      <c r="G55" s="3">
+        <f>Sheet1!$G$5/Sheet2!F55</f>
+        <v>0.67007963594994313</v>
+      </c>
+      <c r="H55" s="21">
+        <f>G55/2^I55</f>
+        <v>0.16751990898748578</v>
+      </c>
+      <c r="I55" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J55" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H55*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1571</v>
+      </c>
+      <c r="K55" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>13</v>
+      </c>
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D56" s="15">
+        <f xml:space="preserve"> INT(A56*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2022</v>
+      </c>
+      <c r="E56" s="15">
+        <f xml:space="preserve"> INT(B56*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F56" s="15">
+        <f xml:space="preserve"> INT(D56*Sheet1!$C$21-Sheet2!E56)</f>
+        <v>5585</v>
+      </c>
+      <c r="G56" s="3">
+        <f>Sheet1!$G$5/Sheet2!F56</f>
+        <v>0.63276633840644581</v>
+      </c>
+      <c r="H56" s="21">
+        <f>G56/2^I56</f>
+        <v>0.15819158460161145</v>
+      </c>
+      <c r="I56" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J56" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H56*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x143F</v>
+      </c>
+      <c r="K56" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="B57" s="3">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="D57" s="15">
+        <f xml:space="preserve"> INT(A57*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2099</v>
+      </c>
+      <c r="E57" s="15">
+        <f xml:space="preserve"> INT(B57*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F57" s="15">
+        <f xml:space="preserve"> INT(D57*Sheet1!$C$21-Sheet2!E57)</f>
+        <v>5893</v>
+      </c>
+      <c r="G57" s="3">
+        <f>Sheet1!$G$5/Sheet2!F57</f>
+        <v>0.5996945528593246</v>
+      </c>
+      <c r="H57" s="21">
+        <f>G57/2^I57</f>
+        <v>0.14992363821483115</v>
+      </c>
+      <c r="I57" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J57" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H57*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x1330</v>
+      </c>
+      <c r="K57" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D58" s="15">
+        <f xml:space="preserve"> INT(A58*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2177</v>
+      </c>
+      <c r="E58" s="15">
+        <f xml:space="preserve"> INT(B58*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F58" s="15">
+        <f xml:space="preserve"> INT(D58*Sheet1!$C$21-Sheet2!E58)</f>
+        <v>6204</v>
+      </c>
+      <c r="G58" s="3">
+        <f>Sheet1!$G$5/Sheet2!F58</f>
+        <v>0.56963249516441006</v>
+      </c>
+      <c r="H58" s="21">
+        <f>G58/2^I58</f>
+        <v>0.14240812379110251</v>
+      </c>
+      <c r="I58" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J58" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H58*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x123A</v>
+      </c>
+      <c r="K58" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="4"/>
+        <v>10.5</v>
+      </c>
+      <c r="D59" s="15">
+        <f xml:space="preserve"> INT(A59*Sheet1!$C$20/Sheet1!$B$28)</f>
+        <v>2255</v>
+      </c>
+      <c r="E59" s="15">
+        <f xml:space="preserve"> INT(B59*Sheet1!$B$20/Sheet1!$B$28)</f>
+        <v>2482</v>
+      </c>
+      <c r="F59" s="15">
+        <f xml:space="preserve"> INT(D59*Sheet1!$C$21-Sheet2!E59)</f>
+        <v>6515</v>
+      </c>
+      <c r="G59" s="3">
+        <f>Sheet1!$G$5/Sheet2!F59</f>
+        <v>0.54244052187260172</v>
+      </c>
+      <c r="H59" s="21">
+        <f>G59/2^I59</f>
+        <v>0.13561013046815043</v>
+      </c>
+      <c r="I59" s="21">
+        <f>Sheet1!$F$13</f>
+        <v>2</v>
+      </c>
+      <c r="J59" s="22" t="str">
+        <f xml:space="preserve"> "0x" &amp; RIGHT(DEC2HEX(INT(H59*(2^Sheet1!$B$31-1)), 4), 4)</f>
+        <v>0x115B</v>
+      </c>
+      <c r="K59" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>0xFFFE</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>